--- a/Docs/TeamB.Capstone.Project.Plan.xlsx
+++ b/Docs/TeamB.Capstone.Project.Plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sturgill\Documents\GitHub\Capstone.SU.2025\CincyCapstone2025\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D92AA2-F661-4721-ADC6-71CDDC22F002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766DAC6B-F3EA-4D4F-B9C0-37D0B2FD5632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31300" yWindow="-15680" windowWidth="21590" windowHeight="13400" xr2:uid="{B1DD1FE8-E612-4F6B-A945-77CE9FCB8084}"/>
+    <workbookView xWindow="17170" yWindow="-21600" windowWidth="19380" windowHeight="21690" xr2:uid="{B1DD1FE8-E612-4F6B-A945-77CE9FCB8084}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
   <si>
     <t>Team # Project Plan</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Create Database</t>
   </si>
   <si>
-    <t>Mark Spits</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
@@ -87,21 +84,12 @@
     <t>F</t>
   </si>
   <si>
-    <t>Create Update Page</t>
-  </si>
-  <si>
     <t>G</t>
   </si>
   <si>
     <t>H</t>
   </si>
   <si>
-    <t>Create Whatever you are creating</t>
-  </si>
-  <si>
-    <t>Test Update Page</t>
-  </si>
-  <si>
     <t>Unit Test</t>
   </si>
   <si>
@@ -147,36 +135,18 @@
     <t>Presentation Development</t>
   </si>
   <si>
-    <t>Ty Urup</t>
-  </si>
-  <si>
     <t>Test Report Pages</t>
   </si>
   <si>
-    <t>Create Report Pages</t>
-  </si>
-  <si>
-    <t>N, D, E, F, G, H</t>
-  </si>
-  <si>
     <t>Develop Test Plan</t>
   </si>
   <si>
     <t>Conduct User Test with users</t>
   </si>
   <si>
-    <t>P, O</t>
-  </si>
-  <si>
-    <t>Team and Users</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
     <t xml:space="preserve">Develop Presentation </t>
   </si>
   <si>
@@ -198,9 +168,6 @@
     <t>Create Python GUI</t>
   </si>
   <si>
-    <t>Jason &amp; Adam</t>
-  </si>
-  <si>
     <t>Create HTML Page</t>
   </si>
   <si>
@@ -210,12 +177,6 @@
     <t>Jason</t>
   </si>
   <si>
-    <t>C, D, E</t>
-  </si>
-  <si>
-    <t>This color indicates changes to doc</t>
-  </si>
-  <si>
     <t>Test Python GUI</t>
   </si>
   <si>
@@ -231,10 +192,22 @@
     <t>Jason &amp; Cole</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>x +1day</t>
+    <t>Adam &amp; Jason</t>
+  </si>
+  <si>
+    <t>Assist with HTML &amp; Python</t>
+  </si>
+  <si>
+    <t>Create Report &amp; KDS Pages</t>
+  </si>
+  <si>
+    <t>C, E</t>
+  </si>
+  <si>
+    <t>L, D, E, F, G</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> M,N</t>
   </si>
 </sst>
 </file>
@@ -276,7 +249,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -286,12 +259,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,16 +289,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -648,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5EDA488-F10C-4C91-A42E-9E1FA0496C3F}">
-  <dimension ref="A2:K31"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -659,469 +626,558 @@
     <col min="1" max="1" width="22.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.1328125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.06640625" style="1"/>
-    <col min="4" max="4" width="28.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.06640625" style="1" customWidth="1"/>
     <col min="7" max="8" width="9.06640625" style="1"/>
     <col min="9" max="9" width="19.06640625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.3984375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="25.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>62</v>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>5</v>
+      <c r="A4" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A5" s="4" t="s">
-        <v>13</v>
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="7">
+        <v>45837</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7">
+        <v>45844</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="B6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E6" s="7">
-        <v>45837</v>
+        <v>45845</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="7">
-        <v>45844</v>
-      </c>
+        <v>45848</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="6"/>
       <c r="K6" s="6" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="B7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E7" s="7">
-        <v>45845</v>
+        <v>45849</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="7">
-        <v>45852</v>
-      </c>
+        <v>45851</v>
+      </c>
+      <c r="H7" s="6"/>
       <c r="I7" s="6" t="s">
-        <v>6</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="J7" s="6"/>
       <c r="K7" s="6" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="7">
-        <v>45852</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="7">
+        <v>45837</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7">
         <v>45858</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A9" s="4" t="s">
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B10" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E10" s="7">
         <v>45837</v>
       </c>
+      <c r="F10" s="6"/>
       <c r="G10" s="7">
-        <v>45858</v>
-      </c>
+        <v>45848</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
       <c r="K10" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B11" s="1" t="s">
+      <c r="E11" s="7">
+        <v>45852</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="7">
+        <v>45859</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="7">
+        <v>45859</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="7">
+        <v>45870</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="7">
+        <v>45849</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7">
+        <v>45855</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="7">
+        <v>45852</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="7">
+        <v>45870</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="7">
+        <v>45860</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="7">
+        <v>45870</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="7">
-        <v>45837</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="K11" s="6" t="s">
+      <c r="J16" s="6"/>
+      <c r="K16" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="7">
+        <v>45859</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="7">
+        <v>45870</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="7">
+        <v>45859</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="7">
+        <v>45861</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="7">
+        <v>45871</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="7">
+        <v>45881</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="5">
-        <v>44256</v>
-      </c>
-      <c r="G12" s="5">
-        <v>44275</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="5">
-        <v>44268</v>
-      </c>
-      <c r="G13" s="5">
-        <v>44275</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="5">
-        <v>44276</v>
-      </c>
-      <c r="G14" s="5">
-        <v>44288</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A15" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="7">
-        <v>45859</v>
-      </c>
-      <c r="G16" s="5">
-        <v>44275</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G17" s="5">
-        <v>44270</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="5">
-        <v>44276</v>
-      </c>
-      <c r="G18" s="5">
-        <v>44273</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="J20" s="6"/>
+      <c r="K20" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="E19" s="5">
-        <v>44276</v>
-      </c>
-      <c r="G19" s="5">
-        <v>44285</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="5">
-        <v>44289</v>
-      </c>
-      <c r="G20" s="5">
-        <v>44296</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B22" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="7">
+        <v>45871</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="7">
+        <v>45874</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="5">
-        <v>44287</v>
-      </c>
-      <c r="G22" s="5">
-        <v>44296</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="J22" s="6"/>
       <c r="K22" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B23" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="7">
+        <v>45872</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="7">
+        <v>45875</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" s="5">
-        <v>44297</v>
-      </c>
-      <c r="G23" s="5">
-        <v>44304</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="J23" s="6"/>
       <c r="K23" s="6" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="4" t="s">
-        <v>36</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B25" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="5">
-        <v>44297</v>
-      </c>
-      <c r="G25" s="5">
-        <v>44301</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>8</v>
+      <c r="B25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="7">
+        <v>45876</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="7">
+        <v>45878</v>
+      </c>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="5">
-        <v>44302</v>
-      </c>
-      <c r="G26" s="5">
-        <v>44308</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>47</v>
+      <c r="B26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="7">
+        <v>45879</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="7">
+        <v>45881</v>
+      </c>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B28" s="8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B28" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="C28" s="6"/>
       <c r="D28" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E28" s="7">
-        <v>45876</v>
-      </c>
+        <v>45882</v>
+      </c>
+      <c r="F28" s="6"/>
       <c r="G28" s="7">
-        <v>45878</v>
-      </c>
+        <v>45882</v>
+      </c>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J28" s="6"/>
       <c r="K28" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B29" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29" s="7">
-        <v>45879</v>
-      </c>
-      <c r="G29" s="7">
-        <v>45881</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A30" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B31" s="3"/>
-      <c r="D31" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E31" s="7">
-        <v>45882</v>
-      </c>
-      <c r="F31" s="6"/>
-      <c r="G31" s="7">
-        <v>45882</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
